--- a/dls32spbgscfi.xlsx
+++ b/dls32spbgscfi.xlsx
@@ -120,11 +120,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -435,84 +432,80 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" style="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
